--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Planner\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15264B26-0ECB-46F5-97AE-8A3F3B1A30DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,55 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miercoles </t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>6:00 am - 7:00 am</t>
+  </si>
+  <si>
+    <t>7:00 am - 8:00 am</t>
+  </si>
+  <si>
+    <t>8:00 am - 9:00 am</t>
+  </si>
+  <si>
+    <t>INFO II</t>
+  </si>
+  <si>
+    <t>9:00 am- 10:00 am</t>
+  </si>
+  <si>
+    <t>10:00 a.m.</t>
+  </si>
+  <si>
+    <t>11:00 a.m.</t>
+  </si>
+  <si>
+    <t>Sabado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +102,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +392,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2">
+        <v>44970</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44971</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44972</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44973</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44974</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44975</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15264B26-0ECB-46F5-97AE-8A3F3B1A30DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73126544-8441-42D1-ACAA-C03917F40FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Lunes</t>
   </si>
@@ -57,16 +57,61 @@
     <t>9:00 am- 10:00 am</t>
   </si>
   <si>
-    <t>10:00 a.m.</t>
-  </si>
-  <si>
-    <t>11:00 a.m.</t>
-  </si>
-  <si>
     <t>Sabado</t>
   </si>
   <si>
     <t>Domingo</t>
+  </si>
+  <si>
+    <t>10:00 am - 11:00 am</t>
+  </si>
+  <si>
+    <t>11:00 am - 12:00 pm</t>
+  </si>
+  <si>
+    <t>12:00 pm - 1:00 pm</t>
+  </si>
+  <si>
+    <t>1:00 pm - 2:00 pm</t>
+  </si>
+  <si>
+    <t>2:00 pm - 3:00 pm</t>
+  </si>
+  <si>
+    <t>3:00 pm - 4:00 pm</t>
+  </si>
+  <si>
+    <t>4:00 pm - 5:00 pm</t>
+  </si>
+  <si>
+    <t>5:00 pm - 6:00 pm</t>
+  </si>
+  <si>
+    <t>6:00 pm - 7:00 pm</t>
+  </si>
+  <si>
+    <t>7:00 pm - 8:00 pm</t>
+  </si>
+  <si>
+    <t>INGLÉS V</t>
+  </si>
+  <si>
+    <t>LAB INFO II</t>
+  </si>
+  <si>
+    <t>DISCRETAS</t>
+  </si>
+  <si>
+    <t>CLASES</t>
+  </si>
+  <si>
+    <t>LINEAL</t>
+  </si>
+  <si>
+    <t>INTEGRAL</t>
+  </si>
+  <si>
+    <t>ESTUDIO INFO</t>
   </si>
 </sst>
 </file>
@@ -82,18 +127,89 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -102,15 +218,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,19 +540,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="9" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" customWidth="1"/>
+    <col min="12" max="35" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -416,195 +567,275 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4">
+        <v>44970</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44971</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44972</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44973</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44974</v>
+      </c>
+      <c r="H3" s="4">
+        <v>44975</v>
+      </c>
+      <c r="I3" s="4">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>44970</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44971</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44972</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44973</v>
-      </c>
-      <c r="G3" s="2">
-        <v>44974</v>
-      </c>
-      <c r="H3" s="2">
-        <v>44975</v>
-      </c>
-      <c r="I3" s="2">
-        <v>44976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F10:F11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73126544-8441-42D1-ACAA-C03917F40FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7691BCB-4C59-4CED-936B-DE65DFDF6616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="30">
   <si>
     <t>Lunes</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>ESTUDIO INFO</t>
+  </si>
+  <si>
+    <t>ESTUDIO</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,12 +263,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AI71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +661,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
+      <c r="K5" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -699,7 +718,7 @@
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="3"/>
@@ -714,7 +733,7 @@
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
@@ -821,10 +840,793 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4">
+        <v>44977</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44978</v>
+      </c>
+      <c r="E21" s="4">
+        <v>44979</v>
+      </c>
+      <c r="F21" s="4">
+        <v>44980</v>
+      </c>
+      <c r="G21" s="4">
+        <v>44981</v>
+      </c>
+      <c r="H21" s="4">
+        <v>44982</v>
+      </c>
+      <c r="I21" s="4">
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="4">
+        <v>44984</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44985</v>
+      </c>
+      <c r="E39" s="4">
+        <v>44986</v>
+      </c>
+      <c r="F39" s="4">
+        <v>44987</v>
+      </c>
+      <c r="G39" s="4">
+        <v>44988</v>
+      </c>
+      <c r="H39" s="4">
+        <v>44989</v>
+      </c>
+      <c r="I39" s="4">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="4">
+        <v>44991</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44992</v>
+      </c>
+      <c r="E57" s="4">
+        <v>44993</v>
+      </c>
+      <c r="F57" s="4">
+        <v>44994</v>
+      </c>
+      <c r="G57" s="4">
+        <v>44995</v>
+      </c>
+      <c r="H57" s="4">
+        <v>44996</v>
+      </c>
+      <c r="I57" s="4">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="11"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="48">
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>

--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7691BCB-4C59-4CED-936B-DE65DFDF6616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B2229-A946-4675-BD67-FD4FAA53B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
   <si>
     <t>Lunes</t>
   </si>
@@ -115,19 +115,44 @@
   </si>
   <si>
     <t>ESTUDIO</t>
+  </si>
+  <si>
+    <t>8:00 pm - 9:00 pm</t>
+  </si>
+  <si>
+    <t>To do list semana 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudiar p1 lineal </t>
+  </si>
+  <si>
+    <t>Terminar act.1 lab info</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -150,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -178,6 +203,19 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -223,59 +261,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,23 +645,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI71"/>
+  <dimension ref="A1:AM73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+      <selection activeCell="C40" sqref="C40:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" customWidth="1"/>
-    <col min="12" max="35" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
+    <col min="3" max="9" width="16.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="1" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="23.42578125" style="1" customWidth="1"/>
+    <col min="16" max="39" width="9.140625" style="1"/>
+    <col min="40" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -582,60 +676,74 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>44970</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>44971</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>44972</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>44973</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="6">
         <v>44974</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="6">
         <v>44975</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="6">
         <v>44976</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3"/>
@@ -645,988 +753,1284 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="5"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="5"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="5"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="5"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="5"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="5"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="5"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="23"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="21" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I21" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4">
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="6">
         <v>44977</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="6">
         <v>44978</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="6">
         <v>44979</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="6">
         <v>44980</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="6">
         <v>44981</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="6">
         <v>44982</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="6">
         <v>44983</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="3"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="17"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="11"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="11"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="16"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>16</v>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>17</v>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="D31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="23"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+    </row>
+    <row r="40" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="24"/>
+      <c r="C40" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I40" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="4">
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="25"/>
+      <c r="C41" s="28">
         <v>44984</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D41" s="6">
         <v>44985</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E41" s="6">
         <v>44986</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F41" s="6">
         <v>44987</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G41" s="6">
         <v>44988</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H41" s="6">
         <v>44989</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I41" s="6">
         <v>44990</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="10" t="s">
-        <v>23</v>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="12"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="17"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="11"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="11"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="19"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="16"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>17</v>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+    </row>
+    <row r="53" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+    </row>
+    <row r="54" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+    </row>
+    <row r="55" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+    </row>
+    <row r="56" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="23"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+    </row>
+    <row r="58" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="3"/>
+      <c r="C58" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I58" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="4">
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
+      <c r="C59" s="6">
         <v>44991</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D59" s="6">
         <v>44992</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E59" s="6">
         <v>44993</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F59" s="6">
         <v>44994</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G59" s="6">
         <v>44995</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H59" s="6">
         <v>44996</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I59" s="6">
         <v>44997</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="5" t="s">
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="10" t="s">
-        <v>23</v>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="12"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="17"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="11"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="11"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="19"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="16"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
-        <v>17</v>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="5" t="s">
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="5" t="s">
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+    </row>
+    <row r="71" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="5" t="s">
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+    </row>
+    <row r="72" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="5" t="s">
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+    </row>
+    <row r="73" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="C65:C66"/>
     <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
     <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="C47:C48"/>
     <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
     <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
@@ -1639,5 +2043,6 @@
     <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B2229-A946-4675-BD67-FD4FAA53B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0961F7AA-69F0-4D4E-850E-455E0C85B86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0961F7AA-69F0-4D4E-850E-455E0C85B86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D567EC5-D90A-4D3F-A235-1E385758F4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Lunes</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Terminar act.1 lab info</t>
+  </si>
+  <si>
+    <t>Taller p1 integral</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,6 +366,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,7 +657,7 @@
   <dimension ref="A1:AM73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:I41"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -660,7 +669,7 @@
     <col min="11" max="11" width="2.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="1" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="14" max="14" width="7" style="1" customWidth="1"/>
     <col min="15" max="15" width="23.42578125" style="1" customWidth="1"/>
     <col min="16" max="39" width="9.140625" style="1"/>
     <col min="40" max="16384" width="9.140625" style="2"/>
@@ -684,25 +693,25 @@
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="29" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="5"/>
@@ -713,25 +722,25 @@
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="6">
+      <c r="C3" s="30">
         <v>44970</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="30">
         <v>44971</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="30">
         <v>44972</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="30">
         <v>44973</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="30">
         <v>44974</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="30">
         <v>44975</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="30">
         <v>44976</v>
       </c>
       <c r="J3" s="7"/>
@@ -808,7 +817,9 @@
       <c r="J6" s="5"/>
       <c r="K6" s="10"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>

--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D567EC5-D90A-4D3F-A235-1E385758F4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD35E425-ABBA-4081-8E7D-58DA152C90F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="36">
   <si>
     <t>Lunes</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Taller p1 integral</t>
+  </si>
+  <si>
+    <t>instalar qt creator</t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,9 @@
       <c r="J7" s="5"/>
       <c r="K7" s="10"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>

--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD35E425-ABBA-4081-8E7D-58DA152C90F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0E5A4C-AB78-406E-B73C-215A493A98F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="46">
   <si>
     <t>Lunes</t>
   </si>
@@ -111,9 +111,6 @@
     <t>INTEGRAL</t>
   </si>
   <si>
-    <t>ESTUDIO INFO</t>
-  </si>
-  <si>
     <t>ESTUDIO</t>
   </si>
   <si>
@@ -132,7 +129,40 @@
     <t>Taller p1 integral</t>
   </si>
   <si>
-    <t>instalar qt creator</t>
+    <t>PARCIAL 1 LINEAL</t>
+  </si>
+  <si>
+    <t>EXÁMENES</t>
+  </si>
+  <si>
+    <t>PARCIAL 1 INTEGRAL</t>
+  </si>
+  <si>
+    <t>Estudio Info</t>
+  </si>
+  <si>
+    <t>Estudio lineal</t>
+  </si>
+  <si>
+    <t>Semillero de mecatrónica</t>
+  </si>
+  <si>
+    <t>Semillero de mecátronica</t>
+  </si>
+  <si>
+    <t>S. mecatrónica</t>
+  </si>
+  <si>
+    <t>Estudio integral</t>
+  </si>
+  <si>
+    <t>Estudio discretas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio </t>
+  </si>
+  <si>
+    <t>Desatrazarme teoria de las materias</t>
   </si>
 </sst>
 </file>
@@ -161,7 +191,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +207,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -342,13 +384,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -375,6 +411,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM73"/>
+  <dimension ref="A1:AM74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -669,7 +739,7 @@
     <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
     <col min="3" max="9" width="16.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="1" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.140625" style="2" customWidth="1"/>
     <col min="14" max="14" width="7" style="1" customWidth="1"/>
@@ -696,25 +766,25 @@
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="5"/>
@@ -725,32 +795,32 @@
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="30">
+      <c r="C3" s="28">
         <v>44970</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="28">
         <v>44971</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="28">
         <v>44972</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="28">
         <v>44973</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="28">
         <v>44974</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="28">
         <v>44975</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="28">
         <v>44976</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -769,7 +839,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>25</v>
@@ -791,10 +861,10 @@
       <c r="K5" s="10"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -818,10 +888,13 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="10"/>
+      <c r="K6" s="38"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -837,10 +910,10 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="10"/>
+      <c r="K7" s="40"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
-        <v>35</v>
+      <c r="M7" s="39" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -857,22 +930,22 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="10"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>28</v>
+      <c r="C9" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
@@ -885,11 +958,13 @@
       <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="15" t="s">
         <v>26</v>
       </c>
@@ -908,7 +983,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="16"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -923,7 +998,9 @@
       <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="D12" s="15" t="s">
         <v>27</v>
       </c>
@@ -948,7 +1025,9 @@
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -964,95 +1043,105 @@
       <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="C16" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="23"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="21" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
@@ -1203,13 +1292,13 @@
       <c r="B28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>28</v>
+      <c r="C28" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
@@ -1221,11 +1310,13 @@
       <c r="B29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="35" t="s">
+        <v>40</v>
+      </c>
       <c r="F29" s="15" t="s">
         <v>26</v>
       </c>
@@ -1243,7 +1334,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="16"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1257,7 +1348,9 @@
       <c r="B31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="D31" s="15" t="s">
         <v>27</v>
       </c>
@@ -1281,7 +1374,9 @@
       <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -1297,99 +1392,101 @@
       <c r="B33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
     </row>
     <row r="34" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
     </row>
     <row r="35" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
+      <c r="C35" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
     </row>
     <row r="36" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
     </row>
     <row r="37" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
     </row>
     <row r="38" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="23"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
     </row>
     <row r="40" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="24"/>
-      <c r="C40" s="27" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="25" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -1416,8 +1513,8 @@
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="25"/>
-      <c r="C41" s="28">
+      <c r="B41" s="23"/>
+      <c r="C41" s="26">
         <v>44984</v>
       </c>
       <c r="D41" s="6">
@@ -1444,7 +1541,7 @@
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="3"/>
@@ -1536,13 +1633,13 @@
       <c r="B47" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>28</v>
+      <c r="C47" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="19"/>
+      <c r="G47" s="18"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="5"/>
@@ -1554,9 +1651,9 @@
       <c r="B48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="15" t="s">
-        <v>26</v>
+      <c r="C48" s="33"/>
+      <c r="D48" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="15" t="s">
@@ -1575,8 +1672,10 @@
         <v>15</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="3"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="37" t="s">
+        <v>41</v>
+      </c>
       <c r="F49" s="16"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -1590,15 +1689,17 @@
       <c r="B50" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="D50" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>27</v>
+      <c r="F50" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>24</v>
@@ -1614,10 +1715,12 @@
       <c r="B51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
+      <c r="F51" s="31"/>
       <c r="G51" s="16"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -1630,79 +1733,81 @@
       <c r="B52" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
     </row>
     <row r="53" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
     </row>
     <row r="54" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
+      <c r="C54" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
     </row>
     <row r="55" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
     </row>
     <row r="56" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="23"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
     </row>
     <row r="58" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
@@ -1853,13 +1958,13 @@
       <c r="B65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="18" t="s">
-        <v>28</v>
+      <c r="C65" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="19"/>
+      <c r="G65" s="18"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="5"/>
@@ -1871,7 +1976,7 @@
       <c r="B66" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="20"/>
+      <c r="C66" s="33"/>
       <c r="D66" s="15" t="s">
         <v>26</v>
       </c>
@@ -1893,7 +1998,9 @@
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="16"/>
-      <c r="E67" s="3"/>
+      <c r="E67" s="37" t="s">
+        <v>41</v>
+      </c>
       <c r="F67" s="16"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -1907,7 +2014,9 @@
       <c r="B68" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="D68" s="15" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +2040,9 @@
       <c r="B69" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
@@ -1947,68 +2058,75 @@
       <c r="B70" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
     </row>
     <row r="71" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
     </row>
     <row r="72" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
+      <c r="C72" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
     </row>
     <row r="73" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+    </row>
+    <row r="74" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="52">
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="G64:G66"/>
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="D66:D67"/>
@@ -2041,12 +2159,14 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>

--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D57702-0CEA-44DC-B3A4-74305E16D61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA981B3-485C-4063-AB76-7F1380B2F446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
